--- a/medicine/Mort/Cimetière_Mikveh_Israel/Cimetière_Mikveh_Israel.xlsx
+++ b/medicine/Mort/Cimetière_Mikveh_Israel/Cimetière_Mikveh_Israel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mikveh_Israel</t>
+          <t>Cimetière_Mikveh_Israel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mikveh Israel est le plus ancien cimetière juif de Philadelphie (Pennsylvanie) et l'un des plus vieux du territoire des États-Unis après le Second cimetière de la congrégation Shearith Israël à New York. Le terrain qui mesure seulement 810 m² est un site historique  classé  administré par le Independence National Historical Park (bien que les dépenses liées à l'entretien soient à la charge de la congrégation Mikveh Israel). Il est situé dans le centre-ville de Philadelphie sur Spruce Street, à côté de la 8e rue à proximité de Independence Hall.
 Ce cimetière servit à l'origine de lieu de sépulture pour la famille de Nathan Levy dont on a longtemps affirmé que son bateau avait servi pour transporter la Liberty Bell de l'Angleterre à Philadelphie. Il acheta le terrain en 1738, l'étendit puis en fit don en 1765 à la communauté sépharade Mikveh Israel fondée en 1740 et toujours active de nos jours.
-on cessa de procéder à des enterrements dans le cimetière à partir de 1886 sauf à trois rares exceptions en 1913, 1966 et en 1972 pour des personnalités de la communauté[1],[2],[3],[4],[5].
+on cessa de procéder à des enterrements dans le cimetière à partir de 1886 sauf à trois rares exceptions en 1913, 1966 et en 1972 pour des personnalités de la communauté.
 </t>
         </is>
       </c>
